--- a/Examples/AHP_Cassone.xlsx
+++ b/Examples/AHP_Cassone.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtc4455\Documents\IMSE 991 MCDM\Lecture Slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="7380" tabRatio="716" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25260" windowHeight="21060" tabRatio="716" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria Definition" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,15 @@
   <definedNames>
     <definedName name="Comparisonmatrix">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +39,7 @@
     <author>IshizakA</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0">
+    <comment ref="F26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0">
+    <comment ref="G26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +199,7 @@
     <author>IshizakA</author>
   </authors>
   <commentList>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="68">
   <si>
     <t>Visibility</t>
   </si>
@@ -554,11 +562,18 @@
       <t xml:space="preserve"> to "insert" the MMULT function</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Return: Column vector
+=PRODUCT(B10:E10)^(1/COUNT(B10:E10))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -740,35 +755,35 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,6 +922,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,6 +950,210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1600200" cy="1077603"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5676900" y="914401"/>
+              <a:ext cx="1600200" cy="1077603"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:rad>
+                      <m:radPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:deg>
+                      <m:e>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∏"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" i="1">
+                                <a:latin typeface="Cambria Math" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="23"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" charset="0"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1800" i="1">
+                                    <a:latin typeface="Cambria Math" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑎</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖𝑗</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5676900" y="914401"/>
+              <a:ext cx="1600200" cy="1077603"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛&amp;∏24_(𝑗=1)^𝑛▒𝑎_𝑖𝑗 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,9 +1202,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1006,9 +1237,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1218,20 +1449,20 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="68"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1255,7 +1486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1263,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1288,13 +1519,13 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C4" s="12">
         <v>1</v>
       </c>
@@ -1310,7 +1541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -1318,7 +1549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -1326,7 +1557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -1334,7 +1565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -1342,7 +1573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -1350,7 +1581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C10" s="12">
         <v>7</v>
       </c>
@@ -1358,7 +1589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C11" s="12">
         <v>8</v>
       </c>
@@ -1366,7 +1597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C12" s="12">
         <v>9</v>
       </c>
@@ -1384,41 +1615,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+    <sheetView topLeftCell="A140" workbookViewId="0">
       <selection activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="5"/>
+    <col min="1" max="1" width="15.33203125" style="5"/>
     <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="5"/>
-    <col min="6" max="6" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="5"/>
-    <col min="10" max="10" width="17.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="5"/>
-    <col min="12" max="12" width="5.7109375" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="15.28515625" style="5"/>
+    <col min="3" max="5" width="15.33203125" style="5"/>
+    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="5"/>
+    <col min="10" max="10" width="17.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="5"/>
+    <col min="12" max="12" width="5.6640625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="15.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="33" t="s">
         <v>0</v>
@@ -1438,7 +1669,7 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1691,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1713,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1735,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>3</v>
       </c>
@@ -1526,21 +1757,21 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1852,7 @@
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
     </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1893,7 @@
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1929,7 @@
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1965,7 @@
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F21" s="36">
         <f>SUM(F17:F20)</f>
         <v>109.25</v>
@@ -1744,15 +1975,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +2010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -1863,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -1903,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F30" s="36">
         <f>SUM(F26:F29)</f>
         <v>2089.625</v>
@@ -1953,17 +2184,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="13" t="s">
         <v>7</v>
@@ -1975,7 +2206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
@@ -1990,7 +2221,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>9</v>
       </c>
@@ -2004,7 +2235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>8</v>
       </c>
@@ -2018,13 +2249,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="46"/>
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="13" t="s">
         <v>7</v>
@@ -2042,7 +2273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2298,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2323,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2348,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="46"/>
       <c r="C46" s="47"/>
@@ -2128,14 +2359,14 @@
       </c>
       <c r="F46" s="39"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="46"/>
       <c r="C47" s="47"/>
       <c r="D47" s="48"/>
       <c r="F47" s="39"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="13" t="s">
         <v>7</v>
@@ -2153,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>7</v>
       </c>
@@ -2178,7 +2409,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>9</v>
       </c>
@@ -2206,7 +2437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2462,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="46"/>
       <c r="C52" s="47"/>
@@ -2241,7 +2472,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>33</v>
       </c>
@@ -2249,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
@@ -2258,7 +2489,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2498,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>8</v>
       </c>
@@ -2276,19 +2507,19 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="29">
         <f>SUM(B55:B57)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="13" t="s">
         <v>7</v>
@@ -2300,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>7</v>
       </c>
@@ -2315,7 +2546,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +2560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>8</v>
       </c>
@@ -2343,13 +2574,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="46"/>
       <c r="C66" s="47"/>
       <c r="D66" s="48"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="13" t="s">
         <v>7</v>
@@ -2367,7 +2598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>7</v>
       </c>
@@ -2392,7 +2623,7 @@
         <v>8.6345381526104423E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +2648,7 @@
         <v>0.35140562248995988</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2673,7 @@
         <v>0.56224899598393574</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="46"/>
       <c r="C71" s="47"/>
@@ -2453,14 +2684,14 @@
       </c>
       <c r="F71" s="39"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="46"/>
       <c r="C72" s="47"/>
       <c r="D72" s="48"/>
       <c r="F72" s="39"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="13" t="s">
         <v>7</v>
@@ -2478,7 +2709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>7</v>
       </c>
@@ -2503,7 +2734,7 @@
         <v>8.8787582763486375E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>9</v>
       </c>
@@ -2531,7 +2762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>8</v>
       </c>
@@ -2556,7 +2787,7 @@
         <v>0.55899272766742647</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="46"/>
       <c r="C77" s="47"/>
@@ -2566,13 +2797,13 @@
         <v>460.65</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="46"/>
       <c r="C78" s="47"/>
       <c r="D78" s="48"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>33</v>
       </c>
@@ -2580,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2820,7 @@
         <v>8.8787582763486375E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>9</v>
       </c>
@@ -2598,7 +2829,7 @@
         <v>0.35221968956908717</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>8</v>
       </c>
@@ -2607,23 +2838,23 @@
         <v>0.55899272766742647</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="28">
         <f>SUM(B80:B82)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="17"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="13" t="s">
         <v>7</v>
@@ -2635,7 +2866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>7</v>
       </c>
@@ -2650,7 +2881,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>9</v>
       </c>
@@ -2664,7 +2895,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>8</v>
       </c>
@@ -2678,13 +2909,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="46"/>
       <c r="C91" s="47"/>
       <c r="D91" s="48"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="13" t="s">
         <v>7</v>
@@ -2702,7 +2933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +2958,7 @@
         <v>8.9928057553956831E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2983,7 @@
         <v>0.27730542838456507</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>8</v>
       </c>
@@ -2777,7 +3008,7 @@
         <v>0.6327665140614781</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="46"/>
       <c r="C96" s="47"/>
@@ -2788,14 +3019,14 @@
       </c>
       <c r="F96" s="39"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="46"/>
       <c r="C97" s="47"/>
       <c r="D97" s="48"/>
       <c r="F97" s="39"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="13" t="s">
         <v>7</v>
@@ -2813,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +3069,7 @@
         <v>9.3715690271856306E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>9</v>
       </c>
@@ -2866,7 +3097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +3122,7 @@
         <v>0.62648802360306299</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="46"/>
       <c r="C102" s="47"/>
@@ -2901,13 +3132,13 @@
         <v>478.9397222222222</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="46"/>
       <c r="C103" s="47"/>
       <c r="D103" s="48"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>33</v>
       </c>
@@ -2915,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>7</v>
       </c>
@@ -2924,7 +3155,7 @@
         <v>9.3715690271856306E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>9</v>
       </c>
@@ -2933,7 +3164,7 @@
         <v>0.27979628612508073</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>8</v>
       </c>
@@ -2942,23 +3173,23 @@
         <v>0.62648802360306299</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="28">
         <f>SUM(B105:B107)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="17"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="13" t="s">
         <v>7</v>
@@ -2970,7 +3201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>7</v>
       </c>
@@ -2985,7 +3216,7 @@
       </c>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
         <v>9</v>
       </c>
@@ -2999,7 +3230,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>8</v>
       </c>
@@ -3013,13 +3244,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="46"/>
       <c r="C116" s="47"/>
       <c r="D116" s="48"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="13" t="s">
         <v>7</v>
@@ -3037,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3293,7 @@
         <v>5.6642636457260559E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3318,7 @@
         <v>0.23789907312049435</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>8</v>
       </c>
@@ -3112,7 +3343,7 @@
         <v>0.70545829042224517</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="46"/>
       <c r="C121" s="47"/>
@@ -3123,14 +3354,14 @@
       </c>
       <c r="F121" s="39"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="46"/>
       <c r="C122" s="47"/>
       <c r="D122" s="48"/>
       <c r="F122" s="39"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="13" t="s">
         <v>7</v>
@@ -3148,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3404,7 @@
         <v>7.1879969013739969E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>9</v>
       </c>
@@ -3201,7 +3432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>8</v>
       </c>
@@ -3226,7 +3457,7 @@
         <v>0.66640844783300046</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
       <c r="B127" s="46"/>
       <c r="C127" s="47"/>
@@ -3236,13 +3467,13 @@
         <v>900.99183673469383</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
       <c r="B128" s="46"/>
       <c r="C128" s="47"/>
       <c r="D128" s="48"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="24" t="s">
         <v>33</v>
       </c>
@@ -3250,7 +3481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3490,7 @@
         <v>7.1879969013739969E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3499,7 @@
         <v>0.26171158315325965</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>8</v>
       </c>
@@ -3277,34 +3508,34 @@
         <v>0.66640844783300046</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="28">
         <f>SUM(B130:B132)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="17"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="17"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="59" t="s">
         <v>49</v>
       </c>
       <c r="B136" s="17"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="60" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="55" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3544,7 @@
         <v>0.25640366094394929</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="55" t="s">
         <v>0</v>
       </c>
@@ -3321,7 +3552,7 @@
         <v>0.12504635999282168</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="55" t="s">
         <v>2</v>
       </c>
@@ -3330,7 +3561,7 @@
         <v>0.4884668301728779</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="55" t="s">
         <v>3</v>
       </c>
@@ -3339,21 +3570,21 @@
         <v>0.13008314889035116</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="17"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="17"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B144" s="17"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="20"/>
       <c r="B145" s="18" t="s">
         <v>1</v>
@@ -3374,7 +3605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="21" t="s">
         <v>7</v>
       </c>
@@ -3400,7 +3631,7 @@
       </c>
       <c r="G146" s="55"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +3657,7 @@
       </c>
       <c r="G147" s="55"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
         <v>8</v>
       </c>
@@ -3454,16 +3685,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="17"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A153" s="32"/>
       <c r="B153" s="34" t="s">
         <v>0</v>
@@ -3487,7 +3718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="64" t="s">
         <v>0</v>
       </c>
@@ -3515,7 +3746,7 @@
         <v>4.3744331228473028</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="64" t="s">
         <v>1</v>
       </c>
@@ -3543,7 +3774,7 @@
         <v>4.4106455451088351</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="64" t="s">
         <v>2</v>
       </c>
@@ -3571,7 +3802,7 @@
         <v>4.3950549248686581</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="64" t="s">
         <v>3</v>
       </c>
@@ -3599,7 +3830,7 @@
         <v>4.3904741101811817</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G158" s="39"/>
       <c r="H158" s="28">
         <f>AVERAGE(H154:H157)</f>
@@ -3613,7 +3844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="66" t="s">
         <v>63</v>
       </c>
@@ -3648,7 +3879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>64</v>
       </c>
@@ -3694,37 +3925,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="5"/>
+    <col min="1" max="1" width="15.33203125" style="5"/>
     <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="5"/>
-    <col min="6" max="6" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7" max="10" width="15.28515625" style="5"/>
-    <col min="11" max="11" width="5.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="15.28515625" style="5"/>
+    <col min="3" max="5" width="15.33203125" style="5"/>
+    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
+    <col min="7" max="10" width="15.33203125" style="5"/>
+    <col min="11" max="11" width="5.6640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="15.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="33" t="s">
         <v>0</v>
@@ -3743,7 +3974,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -3764,7 +3995,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
@@ -3785,7 +4016,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>2</v>
       </c>
@@ -3806,7 +4037,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>3</v>
       </c>
@@ -3827,20 +4058,20 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +4099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -3909,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -3948,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -3987,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -4026,7 +4257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F21" s="36">
         <f>SUM(F17:F20)</f>
         <v>24.7</v>
@@ -4036,17 +4267,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="13" t="s">
         <v>7</v>
@@ -4058,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>7</v>
       </c>
@@ -4073,7 +4304,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>9</v>
       </c>
@@ -4087,7 +4318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>8</v>
       </c>
@@ -4101,13 +4332,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
       <c r="D31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="13" t="s">
         <v>7</v>
@@ -4125,7 +4356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>7</v>
       </c>
@@ -4150,7 +4381,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +4406,7 @@
         <v>0.11111111111111112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -4200,7 +4431,7 @@
         <v>0.22222222222222224</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="46"/>
       <c r="C36" s="47"/>
@@ -4211,15 +4442,15 @@
       </c>
       <c r="F36" s="39"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>7</v>
       </c>
@@ -4228,7 +4459,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>9</v>
       </c>
@@ -4237,7 +4468,7 @@
         <v>0.11111111111111112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>8</v>
       </c>
@@ -4246,19 +4477,19 @@
         <v>0.22222222222222224</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="29">
         <f>SUM(B39:B41)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="13" t="s">
         <v>7</v>
@@ -4270,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -4285,7 +4516,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>9</v>
       </c>
@@ -4299,7 +4530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>8</v>
       </c>
@@ -4313,13 +4544,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="46"/>
       <c r="C50" s="47"/>
       <c r="D50" s="48"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="13" t="s">
         <v>7</v>
@@ -4337,7 +4568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>7</v>
       </c>
@@ -4362,7 +4593,7 @@
         <v>8.8050314465408799E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>9</v>
       </c>
@@ -4387,7 +4618,7 @@
         <v>0.40880503144654085</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>8</v>
       </c>
@@ -4412,7 +4643,7 @@
         <v>0.50314465408805031</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="46"/>
       <c r="C55" s="47"/>
@@ -4423,21 +4654,21 @@
       </c>
       <c r="F55" s="39"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="46"/>
       <c r="C56" s="47"/>
       <c r="D56" s="48"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="70" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
@@ -4446,7 +4677,7 @@
         <v>8.8050314465408799E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>9</v>
       </c>
@@ -4455,7 +4686,7 @@
         <v>0.40880503144654085</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>8</v>
       </c>
@@ -4464,23 +4695,23 @@
         <v>0.50314465408805031</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="28">
         <f>SUM(B58:B60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="17"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="13" t="s">
         <v>7</v>
@@ -4492,7 +4723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4738,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>9</v>
       </c>
@@ -4521,7 +4752,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>8</v>
       </c>
@@ -4535,13 +4766,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="46"/>
       <c r="C69" s="47"/>
       <c r="D69" s="48"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="13" t="s">
         <v>7</v>
@@ -4559,7 +4790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>7</v>
       </c>
@@ -4584,7 +4815,7 @@
         <v>9.1869060190073917E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>9</v>
       </c>
@@ -4609,7 +4840,7 @@
         <v>0.33790918690601901</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>8</v>
       </c>
@@ -4634,7 +4865,7 @@
         <v>0.57022175290390709</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="46"/>
       <c r="C74" s="47"/>
@@ -4645,22 +4876,22 @@
       </c>
       <c r="F74" s="39"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="46"/>
       <c r="C75" s="47"/>
       <c r="D75" s="48"/>
       <c r="F75" s="39"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>7</v>
       </c>
@@ -4669,7 +4900,7 @@
         <v>9.1869060190073917E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +4909,7 @@
         <v>0.33790918690601901</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>8</v>
       </c>
@@ -4687,23 +4918,23 @@
         <v>0.57022175290390709</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="28">
         <f>SUM(B77:B79)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="17"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="13" t="s">
         <v>7</v>
@@ -4715,7 +4946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>7</v>
       </c>
@@ -4730,7 +4961,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>9</v>
       </c>
@@ -4743,8 +4974,11 @@
       <c r="D86" s="44">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I86" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>8</v>
       </c>
@@ -4758,13 +4992,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="46"/>
       <c r="C88" s="47"/>
       <c r="D88" s="48"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="13" t="s">
         <v>7</v>
@@ -4782,7 +5016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>7</v>
       </c>
@@ -4807,7 +5041,7 @@
         <v>6.5368567454798326E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +5066,7 @@
         <v>0.39916550764951314</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>8</v>
       </c>
@@ -4857,7 +5091,7 @@
         <v>0.53546592489568845</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="46"/>
       <c r="C93" s="47"/>
@@ -4868,22 +5102,22 @@
       </c>
       <c r="F93" s="39"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="46"/>
       <c r="C94" s="47"/>
       <c r="D94" s="48"/>
       <c r="F94" s="39"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +5126,7 @@
         <v>6.5368567454798326E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>9</v>
       </c>
@@ -4901,7 +5135,7 @@
         <v>0.39916550764951314</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>8</v>
       </c>
@@ -4910,34 +5144,34 @@
         <v>0.53546592489568845</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="28">
         <f>SUM(B96:B98)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="17"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="17"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="59" t="s">
         <v>49</v>
       </c>
       <c r="B102" s="17"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="60" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="55" t="s">
         <v>1</v>
       </c>
@@ -4946,7 +5180,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +5189,7 @@
         <v>0.1396761133603239</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="55" t="s">
         <v>2</v>
       </c>
@@ -4964,7 +5198,7 @@
         <v>0.48582995951417007</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="55" t="s">
         <v>3</v>
       </c>
@@ -4973,21 +5207,21 @@
         <v>0.11133603238866398</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="17"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="17"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B110" s="17"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="20"/>
       <c r="B111" s="18" t="s">
         <v>1</v>
@@ -5008,7 +5242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
         <v>7</v>
       </c>
@@ -5034,7 +5268,7 @@
       </c>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
         <v>9</v>
       </c>
@@ -5060,7 +5294,7 @@
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
         <v>8</v>
       </c>
@@ -5088,7 +5322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="17"/>
     </row>
@@ -5102,50 +5336,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="5"/>
+    <col min="1" max="1" width="15.33203125" style="5"/>
     <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="5"/>
-    <col min="6" max="6" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7" max="10" width="15.28515625" style="5"/>
-    <col min="11" max="11" width="5.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="15.28515625" style="5"/>
+    <col min="3" max="5" width="15.33203125" style="5"/>
+    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
+    <col min="7" max="10" width="15.33203125" style="5"/>
+    <col min="11" max="11" width="5.6640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="15.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="33" t="s">
         <v>0</v>
@@ -5159,11 +5409,13 @@
       <c r="E9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
@@ -5179,11 +5431,13 @@
       <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
@@ -5199,11 +5453,13 @@
       <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>2</v>
       </c>
@@ -5219,11 +5475,13 @@
       <c r="E12" s="34">
         <v>4</v>
       </c>
-      <c r="H12" s="35"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>3</v>
       </c>
@@ -5239,19 +5497,20 @@
       <c r="E13" s="34">
         <v>1</v>
       </c>
+      <c r="F13" s="71"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
@@ -5279,7 +5538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +5579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -5360,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -5400,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -5440,23 +5699,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F21" s="39">
         <f>SUM(F17:F20)</f>
         <v>4.8610188570603023</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="13" t="s">
         <v>7</v>
@@ -5468,7 +5727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>7</v>
       </c>
@@ -5483,7 +5742,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>9</v>
       </c>
@@ -5497,7 +5756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>8</v>
       </c>
@@ -5511,13 +5770,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
       <c r="D31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="13" t="s">
         <v>7</v>
@@ -5535,7 +5794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>7</v>
       </c>
@@ -5560,7 +5819,7 @@
         <v>0.6663711090452985</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>9</v>
       </c>
@@ -5585,7 +5844,7 @@
         <v>0.11126102601477721</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -5610,7 +5869,7 @@
         <v>0.22236786493992428</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="46"/>
       <c r="C36" s="47"/>
@@ -5621,15 +5880,15 @@
       </c>
       <c r="F36" s="39"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5897,7 @@
         <v>0.6663711090452985</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>9</v>
       </c>
@@ -5647,7 +5906,7 @@
         <v>0.11126102601477721</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>8</v>
       </c>
@@ -5656,19 +5915,19 @@
         <v>0.22236786493992428</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="29">
         <f>SUM(B39:B41)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="13" t="s">
         <v>7</v>
@@ -5680,7 +5939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
@@ -5695,7 +5954,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>9</v>
       </c>
@@ -5709,7 +5968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>8</v>
       </c>
@@ -5723,13 +5982,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="46"/>
       <c r="C50" s="47"/>
       <c r="D50" s="48"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="13" t="s">
         <v>7</v>
@@ -5747,7 +6006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>7</v>
       </c>
@@ -5772,7 +6031,7 @@
         <v>8.888053151533501E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>9</v>
       </c>
@@ -5797,7 +6056,7 @@
         <v>0.35223676906056572</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>8</v>
       </c>
@@ -5822,7 +6081,7 @@
         <v>0.55888269942409929</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="46"/>
       <c r="C55" s="47"/>
@@ -5833,21 +6092,21 @@
       </c>
       <c r="F55" s="39"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="46"/>
       <c r="C56" s="47"/>
       <c r="D56" s="48"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="70" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
@@ -5856,7 +6115,7 @@
         <v>8.888053151533501E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>9</v>
       </c>
@@ -5865,7 +6124,7 @@
         <v>0.35223676906056572</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>8</v>
       </c>
@@ -5874,23 +6133,23 @@
         <v>0.55888269942409929</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="28">
         <f>SUM(B58:B60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="17"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="13" t="s">
         <v>7</v>
@@ -5902,7 +6161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>7</v>
       </c>
@@ -5917,7 +6176,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>9</v>
       </c>
@@ -5931,7 +6190,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>8</v>
       </c>
@@ -5945,13 +6204,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="46"/>
       <c r="C69" s="47"/>
       <c r="D69" s="48"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="13" t="s">
         <v>7</v>
@@ -5969,7 +6228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>7</v>
       </c>
@@ -5994,7 +6253,7 @@
         <v>9.375630775356554E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>9</v>
       </c>
@@ -6019,7 +6278,7 @@
         <v>0.27980024070655407</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>8</v>
       </c>
@@ -6044,7 +6303,7 @@
         <v>0.62644345153988035</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="46"/>
       <c r="C74" s="47"/>
@@ -6055,22 +6314,22 @@
       </c>
       <c r="F74" s="39"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="46"/>
       <c r="C75" s="47"/>
       <c r="D75" s="48"/>
       <c r="F75" s="39"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>7</v>
       </c>
@@ -6079,7 +6338,7 @@
         <v>9.375630775356554E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>9</v>
       </c>
@@ -6088,7 +6347,7 @@
         <v>0.27980024070655407</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>8</v>
       </c>
@@ -6097,23 +6356,23 @@
         <v>0.62644345153988035</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="28">
         <f>SUM(B77:B79)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="17"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="13" t="s">
         <v>7</v>
@@ -6125,7 +6384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>7</v>
       </c>
@@ -6140,7 +6399,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>9</v>
       </c>
@@ -6154,7 +6413,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>8</v>
       </c>
@@ -6168,13 +6427,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="46"/>
       <c r="C88" s="47"/>
       <c r="D88" s="48"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="13" t="s">
         <v>7</v>
@@ -6192,7 +6451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>7</v>
       </c>
@@ -6217,7 +6476,7 @@
         <v>7.0434220143970674E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>9</v>
       </c>
@@ -6242,7 +6501,7 @@
         <v>0.25740620103732514</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>8</v>
       </c>
@@ -6267,7 +6526,7 @@
         <v>0.67215957881870425</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="46"/>
       <c r="C93" s="47"/>
@@ -6278,22 +6537,22 @@
       </c>
       <c r="F93" s="39"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="46"/>
       <c r="C94" s="47"/>
       <c r="D94" s="48"/>
       <c r="F94" s="39"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>7</v>
       </c>
@@ -6302,7 +6561,7 @@
         <v>7.0434220143970674E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>9</v>
       </c>
@@ -6311,7 +6570,7 @@
         <v>0.25740620103732514</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>8</v>
       </c>
@@ -6320,34 +6579,34 @@
         <v>0.67215957881870425</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="28">
         <f>SUM(B96:B98)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="17"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="17"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="17"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="60" t="s">
+      <c r="B102" s="74"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="75"/>
+      <c r="B103" s="76" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="55" t="s">
         <v>1</v>
       </c>
@@ -6356,7 +6615,7 @@
         <v>0.2446415350303523</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>0</v>
       </c>
@@ -6365,7 +6624,7 @@
         <v>0.11568383948430609</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="55" t="s">
         <v>2</v>
       </c>
@@ -6374,7 +6633,7 @@
         <v>0.51735385797016531</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="55" t="s">
         <v>3</v>
       </c>
@@ -6383,21 +6642,21 @@
         <v>0.12232076751517615</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="17"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="17"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B110" s="17"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="20"/>
       <c r="B111" s="18" t="s">
         <v>1</v>
@@ -6418,7 +6677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
         <v>7</v>
       </c>
@@ -6444,7 +6703,7 @@
       </c>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
         <v>9</v>
       </c>
@@ -6470,7 +6729,7 @@
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
         <v>8</v>
       </c>
@@ -6498,11 +6757,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:H12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>